--- a/ResultadoEleicoesDistritos/CASTELO BRANCO_BELMONTE.xlsx
+++ b/ResultadoEleicoesDistritos/CASTELO BRANCO_BELMONTE.xlsx
@@ -597,64 +597,64 @@
         <v>1753</v>
       </c>
       <c r="H2" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="J2" t="n">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>64</v>
+      </c>
+      <c r="T2" t="n">
+        <v>118</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1100</v>
+      </c>
+      <c r="W2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>6</v>
-      </c>
-      <c r="S2" t="n">
-        <v>66</v>
-      </c>
-      <c r="T2" t="n">
-        <v>136</v>
-      </c>
-      <c r="U2" t="n">
-        <v>11</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>1182</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1091</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
